--- a/default_role/default_role調査.xlsx
+++ b/default_role/default_role調査.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FA3338-CF13-4703-A84B-1343B2130510}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AC909D-55C9-4ACA-960A-9DB59A90A603}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="pg_read_all_settings" sheetId="1" r:id="rId1"/>
+    <sheet name="pg_read_all_stats" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="149">
   <si>
     <t>ロール</t>
   </si>
@@ -46,24 +47,10 @@
     <t>pg_monitor</t>
   </si>
   <si>
-    <t>デフォルトロールの動作確認</t>
-    <rPh sb="9" eb="11">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>潜在的に長時間、テーブルのACCESS SHAREロックを取得する可能性がある監視機能を実行する</t>
   </si>
   <si>
     <t>pg_read_all_settings</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>■pg_read_all_settings</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -102,31 +89,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>スーパーユーザーとそれ以外で読み取れる設定変数の違いがあるか確認します。</t>
-    <rPh sb="11" eb="13">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヘンスウ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>チガ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>1)一般ユーザー作成</t>
     <rPh sb="2" eb="4">
       <t>イッパン</t>
@@ -137,9 +99,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>CREATE ROLE general_user PASSWORD 'g' LOGIN;</t>
-  </si>
-  <si>
     <t>psql -U general_user -p5432 -d testdb -c "create table general_setting as  select * from pg_settings;"</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -151,9 +110,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>CREATE DATABASE testdb WITH TEMPLATE = template0 ENCODING = 'UTF8' LC_COLLATE = 'Japanese_Japan.932' LC_CTYPE = 'Japanese_Japan.932';</t>
-  </si>
-  <si>
     <t>3)一般ユーザーが参照可能な設定テーブルの作成</t>
     <rPh sb="2" eb="4">
       <t>イッパン</t>
@@ -196,9 +152,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>psql -U postgres -p5432 -d testdb -c "create table super_setting as  select * from pg_settings;"</t>
-  </si>
-  <si>
     <t>SELECT 329</t>
   </si>
   <si>
@@ -325,9 +278,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>psql -U postgres -p5432 -d testdb -a -c "GRANT pg_read_all_settings TO general_user;"</t>
-  </si>
-  <si>
     <t>7)再度、一般ユーザーで設定を参照します</t>
     <rPh sb="2" eb="4">
       <t>サイド</t>
@@ -419,13 +369,461 @@
       <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pg_read_all_stats</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pg_read_all_statsロールの動作確認</t>
+    <rPh sb="21" eb="23">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>今回はpg_read_all_statsについて動作確認します</t>
+    <rPh sb="0" eb="2">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特権ユーザーと一般ユーザーで参照できるstatビューの差を確認後、</t>
+    <rPh sb="0" eb="2">
+      <t>トッケン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一般ユーザーにpg_read_all_statsロールを与えて、特権ユーザーとの差異がなくなることを確認します。</t>
+    <rPh sb="0" eb="2">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>トッケン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特権ユーザーと一般ユーザーで参照できる設定変数の差を確認後、</t>
+    <rPh sb="0" eb="2">
+      <t>トッケン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一般ユーザーにpg_read_all_settingsロールを与えて、特権ユーザーとの差異がなくなることを確認します。</t>
+    <rPh sb="0" eb="2">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>トッケン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p5432 -d postgres -c "CREATE ROLE general_user PASSWORD 'g' LOGIN;"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p5432 -d postgres -c "CREATE ROLE general_user PASSWORD 'g' LOGIN;"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p5432 -d postgres -c "CREATE DATABASE testdb WITH TEMPLATE = template0 ENCODING = 'UTF8' LC_COLLATE = 'Japanese_Japan.932' LC_CTYPE = 'Japanese_Japan.932';"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p5432 -d postgres -c "CREATE DATABASE testdb WITH TEMPLATE = template0 ENCODING = 'UTF8' LC_COLLATE = 'Japanese_Japan.932' LC_CTYPE = 'Japanese_Japan.932';"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p5432 -d testdb -c "create table super_setting as  select * from pg_settings;"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p5432 -d testdb -a -c "GRANT pg_read_all_settings TO general_user;"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DO $$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  DECLARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    rec record;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    nbrow bigint;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  BEGIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    FOR rec IN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    LOOP </t>
+  </si>
+  <si>
+    <t>EXECUTE 'SELECT count(*) FROM '</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        || quote_ident(rec.viewname)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      INTO nbrow;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      RAISE NOTICE '%', rec.viewname || ' = ' || nbrow;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    END LOOP;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  END;</t>
+  </si>
+  <si>
+    <t>$$ LANGUAGE plpgsql;</t>
+  </si>
+  <si>
+    <t>差異を表にします</t>
+    <rPh sb="0" eb="2">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ビュー名称</t>
+    <rPh sb="3" eb="5">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>潜在的に長時間、テーブルのACCESS SHAREロックを取得する可能性がある
+監視機能を実行する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>他のバックエンドにシグナルを送信する
+（例：問い合わせのキャンセル、プロセスの終了）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一般</t>
+    <rPh sb="0" eb="2">
+      <t>イッパン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特権</t>
+    <rPh sb="0" eb="2">
+      <t>トッケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3)スーパーユーザーと一般ユーザーで上記pg_stat_*ビューにアクセス</t>
+    <rPh sb="11" eb="13">
+      <t>イッパン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p5432 -d testdb -a -c "GRANT pg_read_all_stats TO general_user;"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>select viewname from pg_views where viewname  ilike 'pg#_stat#_%' escape '#'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pg_stat_progress_vacuum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pg_stat_progress_cluster </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pg_stat_progress_create_index </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pg_stat_progress_basebackup </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pg_stat_xact_all_tables </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pg_stat_sys_tables </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pg_stat_xact_sys_tables </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pg_stat_user_tables </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pg_stat_xact_user_tables </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pg_stat_user_indexes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pg_stat_replication </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pg_stat_slru </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pg_stat_wal_receiver </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pg_stat_subscription </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pg_stat_ssl </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pg_stat_gssapi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pg_stat_database </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pg_stat_database_conflicts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pg_stat_user_functions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pg_stat_xact_user_functions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pg_stat_archiver </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pg_stat_bgwriter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pg_stat_progress_analyze </t>
+  </si>
+  <si>
+    <t>特権ユーザーと一般ユーザーで差異があるのは、「pg_stats 」「 pg_stat_ssl 」</t>
+    <rPh sb="0" eb="2">
+      <t>トッケン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">pg_stat_activity </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  pid  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                               </t>
+  </si>
+  <si>
+    <t>(9 行)</t>
+  </si>
+  <si>
+    <t>psql -U postgres -p5432 -d testdb -a -c "select pid, substr(query,0,30) ,usename from pg_stat_activity;"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            substr             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> usename</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> postgres</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WITH configs AS (SELECT datna </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT t.oid, t.xmin, t.*, re </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SELECT CASE WHEN typbasetype= </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> select pid, substr(query,0,30 </t>
+  </si>
+  <si>
+    <t>4)特権ユーザーでpg_stat_activityを参照する</t>
+    <rPh sb="2" eb="4">
+      <t>トッケン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U general_user -p5432 -d testdb -a -c "select pid, substr(query,0,30) ,usename from pg_stat_activity;"</t>
+  </si>
+  <si>
+    <t>psql -U general_user -p5432 -d testdb -a -c "select pid, substr(query,0,30) ,usename from pg_stat_activity;"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   usename</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;insufficient privilege&gt;      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> general_user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pg_stat_all_indexes </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">pg_stat_sys_indexes </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">pg_stat_all_tables </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5)一般ユーザーでpg_stat_activityを参照する。自身のセッションだけはqueryを参照できています。</t>
+    <rPh sb="2" eb="4">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一般(権限付与)</t>
+    <rPh sb="0" eb="2">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7)権限付与済みの一般ユーザーでpg_stat_activityを参照する。すべてのセッションのqueryを参照できています。</t>
+    <rPh sb="2" eb="4">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(8 行)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,8 +874,35 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -514,8 +939,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -538,11 +981,185 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -563,6 +1180,47 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -843,10 +1501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:C69"/>
+  <dimension ref="B1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:XFD61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -861,17 +1519,17 @@
   <sheetData>
     <row r="1" spans="2:3" s="2" customFormat="1" ht="28.5">
       <c r="B1" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="19.5" thickBot="1"/>
@@ -885,7 +1543,7 @@
     </row>
     <row r="6" spans="2:3" ht="19.5" thickBot="1">
       <c r="B6" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>2</v>
@@ -896,7 +1554,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="19.5" thickBot="1">
@@ -904,7 +1562,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="19.5" thickBot="1">
@@ -920,321 +1578,1665 @@
         <v>7</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" s="4" customFormat="1">
+      <c r="B17" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="20" spans="2:2" s="4" customFormat="1">
+      <c r="B20" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" s="4" customFormat="1">
+      <c r="B23" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" s="4" customFormat="1">
+      <c r="B24" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" s="4" customFormat="1">
+      <c r="B25" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" s="4" customFormat="1">
+      <c r="B26" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" s="4" customFormat="1">
+      <c r="B29" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" s="4" customFormat="1">
+      <c r="B30" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" s="4" customFormat="1">
+      <c r="B31" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" s="4" customFormat="1">
+      <c r="B32" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" s="4" customFormat="1">
+      <c r="B35" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" s="4" customFormat="1"/>
+    <row r="37" spans="2:3" s="4" customFormat="1">
+      <c r="B37" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" s="4" customFormat="1">
+      <c r="B38" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" s="4" customFormat="1">
+      <c r="B39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" s="4" customFormat="1">
+      <c r="B40" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" s="4" customFormat="1">
+      <c r="B41" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" s="4" customFormat="1">
+      <c r="B42" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" s="4" customFormat="1">
+      <c r="B43" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" s="4" customFormat="1">
+      <c r="B44" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" s="4" customFormat="1">
+      <c r="B45" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" s="4" customFormat="1">
+      <c r="B46" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" s="4" customFormat="1">
+      <c r="B47" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" s="4" customFormat="1">
+      <c r="B48" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" s="4" customFormat="1">
+      <c r="B49" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" s="4" customFormat="1">
+      <c r="B50" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" s="4" customFormat="1">
+      <c r="B51" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" s="4" customFormat="1">
+      <c r="B52" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" s="4" customFormat="1">
+      <c r="B53" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" s="4" customFormat="1">
+      <c r="B54" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" s="4" customFormat="1">
+      <c r="B55" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" s="4" customFormat="1">
+      <c r="B56" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" s="4" customFormat="1">
+      <c r="B57" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" s="4" customFormat="1">
+      <c r="B58" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="B60" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" s="4" customFormat="1">
+      <c r="B61" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" s="4" customFormat="1">
+      <c r="B64" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" s="4" customFormat="1">
+      <c r="B65" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" s="4" customFormat="1">
+      <c r="B66" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" s="4" customFormat="1">
+      <c r="B67" s="4">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB314D5D-A6D2-4230-A134-4CC75EBED2C8}">
+  <dimension ref="B1:F148"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C142" sqref="C142"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="71.375" customWidth="1"/>
+    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" s="2" customFormat="1" ht="28.5">
+      <c r="B1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" s="1" customFormat="1">
+      <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" s="1" customFormat="1">
+      <c r="B3" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" s="1" customFormat="1" ht="19.5" thickBot="1"/>
+    <row r="5" spans="2:3" s="1" customFormat="1" ht="19.5" thickBot="1">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" s="1" customFormat="1" ht="19.5" thickBot="1">
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" s="1" customFormat="1" ht="38.25" thickBot="1">
+      <c r="B7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" s="1" customFormat="1" ht="38.25" thickBot="1">
+      <c r="B8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" s="1" customFormat="1" ht="38.25" thickBot="1">
+      <c r="B9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" s="1" customFormat="1" ht="57" thickBot="1">
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" s="1" customFormat="1">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="2:3" s="1" customFormat="1">
+      <c r="B12" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" s="1" customFormat="1">
+      <c r="B13" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" s="1" customFormat="1"/>
+    <row r="15" spans="2:3" s="1" customFormat="1">
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:3" s="4" customFormat="1">
       <c r="B16" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" s="1" customFormat="1"/>
+    <row r="18" spans="2:3" s="1" customFormat="1">
       <c r="B18" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" s="4" customFormat="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" s="4" customFormat="1">
       <c r="B19" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" s="1" customFormat="1"/>
+    <row r="21" spans="2:3" s="1" customFormat="1">
       <c r="B21" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" s="4" customFormat="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" s="4" customFormat="1">
       <c r="B22" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" s="4" customFormat="1">
-      <c r="B23" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" s="4" customFormat="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" s="4" customFormat="1">
+      <c r="B23" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" s="4" customFormat="1">
       <c r="B24" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" s="4" customFormat="1">
-      <c r="B25" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" s="4" customFormat="1">
-      <c r="B28" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" s="4" customFormat="1">
-      <c r="B29" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" s="4" customFormat="1">
-      <c r="B30" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" s="4" customFormat="1">
-      <c r="B31" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" s="4" customFormat="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" s="4" customFormat="1">
+      <c r="B25" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" s="4" customFormat="1">
+      <c r="B26" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" s="4" customFormat="1">
+      <c r="B27" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" s="4" customFormat="1">
+      <c r="C28" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" s="4" customFormat="1">
+      <c r="B29" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" s="4" customFormat="1">
+      <c r="C30" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" s="4" customFormat="1">
+      <c r="B31" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" s="4" customFormat="1">
+      <c r="B32" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" s="4" customFormat="1">
+      <c r="B33" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" s="4" customFormat="1">
       <c r="B34" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" s="4" customFormat="1"/>
-    <row r="36" spans="2:3" s="4" customFormat="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" s="4" customFormat="1">
+      <c r="B35" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" s="4" customFormat="1">
       <c r="B36" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" s="4" customFormat="1">
-      <c r="B37" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" s="1" customFormat="1"/>
+    <row r="38" spans="2:6" s="13" customFormat="1">
+      <c r="B38" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" s="13" customFormat="1" ht="19.5" thickBot="1">
+      <c r="B39" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" s="13" customFormat="1" ht="20.25" thickTop="1" thickBot="1">
+      <c r="C40" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" s="13" customFormat="1" ht="20.25" thickTop="1">
+      <c r="C41" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="28">
+        <v>0</v>
+      </c>
+      <c r="E41" s="32">
+        <v>0</v>
+      </c>
+      <c r="F41" s="14"/>
+    </row>
+    <row r="42" spans="2:6" s="13" customFormat="1" ht="19.5">
+      <c r="C42" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="18">
+        <v>0</v>
+      </c>
+      <c r="E42" s="19">
+        <v>0</v>
+      </c>
+      <c r="F42" s="14"/>
+    </row>
+    <row r="43" spans="2:6" s="14" customFormat="1">
+      <c r="C43" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="20">
+        <v>0</v>
+      </c>
+      <c r="E43" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" s="14" customFormat="1">
+      <c r="C44" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="20">
+        <v>0</v>
+      </c>
+      <c r="E44" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" s="14" customFormat="1">
+      <c r="C45" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="20">
+        <v>154</v>
+      </c>
+      <c r="E45" s="21">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" s="14" customFormat="1">
+      <c r="C46" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" s="20">
+        <v>154</v>
+      </c>
+      <c r="E46" s="21">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" s="14" customFormat="1">
+      <c r="C47" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" s="20">
+        <v>104</v>
+      </c>
+      <c r="E47" s="21">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" s="14" customFormat="1">
+      <c r="C48" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" s="20">
+        <v>104</v>
+      </c>
+      <c r="E48" s="21">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" s="14" customFormat="1">
+      <c r="C49" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="20">
+        <v>104</v>
+      </c>
+      <c r="E49" s="21">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" s="14" customFormat="1">
+      <c r="C50" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="20">
+        <v>104</v>
+      </c>
+      <c r="E50" s="21">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" s="14" customFormat="1">
+      <c r="C51" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="20">
+        <v>0</v>
+      </c>
+      <c r="E51" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" s="14" customFormat="1">
+      <c r="C52" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" s="20">
+        <v>0</v>
+      </c>
+      <c r="E52" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" s="14" customFormat="1">
+      <c r="C53" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" s="20">
+        <v>0</v>
+      </c>
+      <c r="E53" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" s="14" customFormat="1">
+      <c r="C54" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D54" s="20">
+        <v>9</v>
+      </c>
+      <c r="E54" s="21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" s="14" customFormat="1">
+      <c r="C55" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D55" s="20">
+        <v>0</v>
+      </c>
+      <c r="E55" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" s="14" customFormat="1">
+      <c r="C56" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D56" s="20">
+        <v>8</v>
+      </c>
+      <c r="E56" s="21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" s="14" customFormat="1">
+      <c r="C57" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D57" s="20">
+        <v>0</v>
+      </c>
+      <c r="E57" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" s="14" customFormat="1">
+      <c r="C58" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D58" s="20">
+        <v>0</v>
+      </c>
+      <c r="E58" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" s="14" customFormat="1">
+      <c r="C59" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D59" s="35">
+        <v>4</v>
+      </c>
+      <c r="E59" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" s="14" customFormat="1">
+      <c r="C60" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60" s="35">
+        <v>4</v>
+      </c>
+      <c r="E60" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" s="14" customFormat="1">
+      <c r="C61" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D61" s="20">
+        <v>5</v>
+      </c>
+      <c r="E61" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" s="14" customFormat="1">
+      <c r="C62" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D62" s="20">
+        <v>4</v>
+      </c>
+      <c r="E62" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" s="14" customFormat="1">
+      <c r="C63" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D63" s="20">
+        <v>0</v>
+      </c>
+      <c r="E63" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" s="14" customFormat="1">
+      <c r="C64" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D64" s="20">
+        <v>0</v>
+      </c>
+      <c r="E64" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" s="14" customFormat="1">
+      <c r="C65" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D65" s="20">
+        <v>1</v>
+      </c>
+      <c r="E65" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" s="14" customFormat="1">
+      <c r="C66" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D66" s="20">
+        <v>1</v>
+      </c>
+      <c r="E66" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" s="14" customFormat="1" ht="19.5" thickBot="1">
+      <c r="C67" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D67" s="23">
+        <v>0</v>
+      </c>
+      <c r="E67" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" ht="19.5" thickTop="1"/>
+    <row r="70" spans="2:5" s="1" customFormat="1">
+      <c r="B70" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" s="4" customFormat="1">
+      <c r="B71" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" s="12" customFormat="1">
+      <c r="B72" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" s="12" customFormat="1">
+      <c r="B73" s="12" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="38" spans="2:3" s="4" customFormat="1">
-      <c r="B38" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" s="4" customFormat="1">
-      <c r="B39" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" s="4" customFormat="1">
-      <c r="B40" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" s="4" customFormat="1">
-      <c r="B41" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" s="4" customFormat="1">
-      <c r="B42" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" s="4" customFormat="1">
-      <c r="B43" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" s="4" customFormat="1">
-      <c r="B44" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" s="4" customFormat="1">
-      <c r="B45" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" s="4" customFormat="1">
-      <c r="B46" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" s="4" customFormat="1">
-      <c r="B47" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="2:3" s="4" customFormat="1">
-      <c r="B48" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" s="4" customFormat="1">
-      <c r="B49" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" s="4" customFormat="1">
-      <c r="B50" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" s="4" customFormat="1">
-      <c r="B51" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" s="4" customFormat="1">
-      <c r="B52" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" s="4" customFormat="1">
-      <c r="B53" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" s="4" customFormat="1">
-      <c r="B54" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" s="4" customFormat="1">
-      <c r="B55" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C55" s="4" t="s">
+      <c r="C73" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" s="12" customFormat="1">
+      <c r="B74" s="12">
+        <v>5492</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" s="12" customFormat="1">
+      <c r="B75" s="12">
+        <v>5476</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" s="12" customFormat="1">
+      <c r="B76" s="12">
+        <v>12032</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" s="12" customFormat="1">
+      <c r="B77" s="12">
+        <v>7700</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" s="12" customFormat="1">
+      <c r="B78" s="12">
+        <v>13888</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" s="12" customFormat="1">
+      <c r="B79" s="12">
+        <v>6420</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" s="12" customFormat="1">
+      <c r="B80" s="12">
+        <v>5460</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" s="12" customFormat="1">
+      <c r="B81" s="12">
+        <v>5448</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" s="12" customFormat="1">
+      <c r="B82" s="12">
+        <v>5468</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" s="12" customFormat="1">
+      <c r="B83" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" ht="19.5">
+      <c r="B85" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" s="4" customFormat="1">
+      <c r="B86" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" s="12" customFormat="1">
+      <c r="B87" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" s="12" customFormat="1">
+      <c r="B88" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" s="12" customFormat="1">
+      <c r="B89" s="12">
+        <v>5492</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" s="12" customFormat="1">
+      <c r="B90" s="12">
+        <v>5476</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" s="12" customFormat="1">
+      <c r="B91" s="12">
+        <v>12032</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" s="12" customFormat="1">
+      <c r="B92" s="12">
+        <v>7700</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" s="12" customFormat="1">
+      <c r="B93" s="12">
+        <v>13888</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" s="12" customFormat="1">
+      <c r="B94" s="12">
+        <v>9828</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" s="12" customFormat="1">
+      <c r="B95" s="12">
+        <v>5460</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" s="12" customFormat="1">
+      <c r="B96" s="12">
+        <v>5448</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" s="12" customFormat="1">
+      <c r="B97" s="12">
+        <v>5468</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" s="12" customFormat="1">
+      <c r="B98" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" s="1" customFormat="1">
+      <c r="B101" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="2:3" s="4" customFormat="1">
-      <c r="B56" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" s="4" customFormat="1">
-      <c r="B57" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3">
-      <c r="B59" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" s="4" customFormat="1">
-      <c r="B60" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3">
-      <c r="B62" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" s="4" customFormat="1">
-      <c r="B63" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" s="4" customFormat="1">
-      <c r="B64" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" s="4" customFormat="1">
-      <c r="B65" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" s="4" customFormat="1">
-      <c r="B66" s="4">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="1" t="s">
-        <v>67</v>
+    <row r="102" spans="2:6" s="4" customFormat="1">
+      <c r="B102" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" ht="19.5">
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+    </row>
+    <row r="104" spans="2:6" ht="19.5">
+      <c r="B104" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
+    </row>
+    <row r="105" spans="2:6" ht="20.25" thickBot="1">
+      <c r="B105" s="13"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
+    </row>
+    <row r="106" spans="2:6" ht="21" thickTop="1" thickBot="1">
+      <c r="B106" s="13"/>
+      <c r="C106" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D106" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E106" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F106" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" ht="20.25" thickTop="1">
+      <c r="B107" s="13"/>
+      <c r="C107" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D107" s="28">
+        <v>0</v>
+      </c>
+      <c r="E107" s="18">
+        <v>0</v>
+      </c>
+      <c r="F107" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" ht="19.5">
+      <c r="B108" s="13"/>
+      <c r="C108" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D108" s="18">
+        <v>0</v>
+      </c>
+      <c r="E108" s="18">
+        <v>0</v>
+      </c>
+      <c r="F108" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6">
+      <c r="B109" s="14"/>
+      <c r="C109" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="D109" s="20">
+        <v>0</v>
+      </c>
+      <c r="E109" s="20">
+        <v>0</v>
+      </c>
+      <c r="F109" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6">
+      <c r="B110" s="14"/>
+      <c r="C110" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D110" s="20">
+        <v>0</v>
+      </c>
+      <c r="E110" s="20">
+        <v>0</v>
+      </c>
+      <c r="F110" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6">
+      <c r="B111" s="14"/>
+      <c r="C111" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D111" s="20">
+        <v>154</v>
+      </c>
+      <c r="E111" s="20">
+        <v>154</v>
+      </c>
+      <c r="F111" s="29">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="112" spans="2:6">
+      <c r="B112" s="14"/>
+      <c r="C112" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D112" s="20">
+        <v>154</v>
+      </c>
+      <c r="E112" s="20">
+        <v>154</v>
+      </c>
+      <c r="F112" s="29">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6">
+      <c r="B113" s="14"/>
+      <c r="C113" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D113" s="20">
+        <v>104</v>
+      </c>
+      <c r="E113" s="20">
+        <v>104</v>
+      </c>
+      <c r="F113" s="29">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6">
+      <c r="B114" s="14"/>
+      <c r="C114" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D114" s="20">
+        <v>104</v>
+      </c>
+      <c r="E114" s="20">
+        <v>104</v>
+      </c>
+      <c r="F114" s="29">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6">
+      <c r="B115" s="14"/>
+      <c r="C115" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D115" s="20">
+        <v>104</v>
+      </c>
+      <c r="E115" s="20">
+        <v>104</v>
+      </c>
+      <c r="F115" s="29">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6">
+      <c r="B116" s="14"/>
+      <c r="C116" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D116" s="20">
+        <v>104</v>
+      </c>
+      <c r="E116" s="20">
+        <v>104</v>
+      </c>
+      <c r="F116" s="29">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6">
+      <c r="B117" s="14"/>
+      <c r="C117" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D117" s="20">
+        <v>0</v>
+      </c>
+      <c r="E117" s="20">
+        <v>0</v>
+      </c>
+      <c r="F117" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6">
+      <c r="B118" s="14"/>
+      <c r="C118" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D118" s="20">
+        <v>0</v>
+      </c>
+      <c r="E118" s="20">
+        <v>0</v>
+      </c>
+      <c r="F118" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6">
+      <c r="B119" s="14"/>
+      <c r="C119" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D119" s="20">
+        <v>0</v>
+      </c>
+      <c r="E119" s="20">
+        <v>0</v>
+      </c>
+      <c r="F119" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6">
+      <c r="B120" s="14"/>
+      <c r="C120" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D120" s="20">
+        <v>9</v>
+      </c>
+      <c r="E120" s="20">
+        <v>9</v>
+      </c>
+      <c r="F120" s="29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6">
+      <c r="B121" s="14"/>
+      <c r="C121" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D121" s="20">
+        <v>0</v>
+      </c>
+      <c r="E121" s="20">
+        <v>0</v>
+      </c>
+      <c r="F121" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6">
+      <c r="B122" s="14"/>
+      <c r="C122" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D122" s="20">
+        <v>8</v>
+      </c>
+      <c r="E122" s="20">
+        <v>8</v>
+      </c>
+      <c r="F122" s="29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6">
+      <c r="B123" s="14"/>
+      <c r="C123" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D123" s="20">
+        <v>0</v>
+      </c>
+      <c r="E123" s="20">
+        <v>0</v>
+      </c>
+      <c r="F123" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6">
+      <c r="B124" s="14"/>
+      <c r="C124" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D124" s="20">
+        <v>0</v>
+      </c>
+      <c r="E124" s="20">
+        <v>0</v>
+      </c>
+      <c r="F124" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6">
+      <c r="B125" s="14"/>
+      <c r="C125" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D125" s="35">
+        <v>4</v>
+      </c>
+      <c r="E125" s="35">
+        <v>1</v>
+      </c>
+      <c r="F125" s="37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6">
+      <c r="B126" s="14"/>
+      <c r="C126" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D126" s="35">
+        <v>4</v>
+      </c>
+      <c r="E126" s="35">
+        <v>1</v>
+      </c>
+      <c r="F126" s="37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6">
+      <c r="B127" s="14"/>
+      <c r="C127" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D127" s="20">
+        <v>5</v>
+      </c>
+      <c r="E127" s="20">
+        <v>5</v>
+      </c>
+      <c r="F127" s="29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6">
+      <c r="B128" s="14"/>
+      <c r="C128" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D128" s="20">
+        <v>4</v>
+      </c>
+      <c r="E128" s="20">
+        <v>4</v>
+      </c>
+      <c r="F128" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6">
+      <c r="B129" s="14"/>
+      <c r="C129" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D129" s="20">
+        <v>0</v>
+      </c>
+      <c r="E129" s="20">
+        <v>0</v>
+      </c>
+      <c r="F129" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6">
+      <c r="B130" s="14"/>
+      <c r="C130" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D130" s="20">
+        <v>0</v>
+      </c>
+      <c r="E130" s="20">
+        <v>0</v>
+      </c>
+      <c r="F130" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6">
+      <c r="B131" s="14"/>
+      <c r="C131" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D131" s="20">
+        <v>1</v>
+      </c>
+      <c r="E131" s="20">
+        <v>1</v>
+      </c>
+      <c r="F131" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6">
+      <c r="B132" s="14"/>
+      <c r="C132" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D132" s="20">
+        <v>1</v>
+      </c>
+      <c r="E132" s="20">
+        <v>1</v>
+      </c>
+      <c r="F132" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" ht="19.5" thickBot="1">
+      <c r="B133" s="14"/>
+      <c r="C133" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D133" s="23">
+        <v>0</v>
+      </c>
+      <c r="E133" s="23">
+        <v>0</v>
+      </c>
+      <c r="F133" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" ht="19.5" thickTop="1"/>
+    <row r="136" spans="2:6" ht="19.5">
+      <c r="B136" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" s="38" customFormat="1">
+      <c r="B137" s="38" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6" s="38" customFormat="1">
+      <c r="B138" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="C138" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="D138" s="38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6" s="38" customFormat="1">
+      <c r="B139" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C139" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D139" s="38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6" s="38" customFormat="1">
+      <c r="B140" s="38">
+        <v>5492</v>
+      </c>
+      <c r="C140" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="D140" s="38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" s="38" customFormat="1">
+      <c r="B141" s="38">
+        <v>5476</v>
+      </c>
+      <c r="C141" s="38" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6" s="38" customFormat="1">
+      <c r="B142" s="38">
+        <v>12032</v>
+      </c>
+      <c r="C142" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D142" s="38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6" s="38" customFormat="1">
+      <c r="B143" s="38">
+        <v>7700</v>
+      </c>
+      <c r="C143" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="D143" s="38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6" s="38" customFormat="1">
+      <c r="B144" s="38">
+        <v>12776</v>
+      </c>
+      <c r="C144" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="D144" s="38" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" s="38" customFormat="1">
+      <c r="B145" s="38">
+        <v>5460</v>
+      </c>
+      <c r="C145" s="38" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" s="38" customFormat="1">
+      <c r="B146" s="38">
+        <v>5448</v>
+      </c>
+      <c r="C146" s="38" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" s="38" customFormat="1">
+      <c r="B147" s="38">
+        <v>5468</v>
+      </c>
+      <c r="C147" s="38" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" s="38" customFormat="1">
+      <c r="B148" s="38" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/default_role/default_role調査.xlsx
+++ b/default_role/default_role調査.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AC909D-55C9-4ACA-960A-9DB59A90A603}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C15BC8E-F5CE-4953-A7D2-640DF6480DB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pg_read_all_settings" sheetId="1" r:id="rId1"/>
     <sheet name="pg_read_all_stats" sheetId="2" r:id="rId2"/>
+    <sheet name="pg_stat_scan_tables" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="187">
   <si>
     <t>ロール</t>
   </si>
@@ -817,6 +818,254 @@
   </si>
   <si>
     <t>(8 行)</t>
+  </si>
+  <si>
+    <t>pg_stat_scan_tables</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://qiita.com/nuko_yokohama/items/6debdd3291c8f27d1da8#pg_read_all_stats%E3%83%AD%E3%83%BC%E3%83%AB</t>
+  </si>
+  <si>
+    <t>自分で調べても良くわからなかったので、この方の記事に従って実行してみます。</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キジ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4)pgbench -iで4つのテーブルpgbench_accounts、pgbench_branches、pgbench_history、pgbench_tellersを作成します</t>
+    <rPh sb="86" eb="88">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pgbench -U postgres -i testdb</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U general_user -p5432 -d testdb -a -c "SELECT * FROM pgstattuple('pgbench_accounts');"</t>
+  </si>
+  <si>
+    <t>ERROR:  関数 pgstattuple へのアクセスが拒否されました</t>
+  </si>
+  <si>
+    <t>psql -U postgres -p5432 -d testdb -a -c "SELECT * FROM pgstattuple('pgbench_accounts');"</t>
+  </si>
+  <si>
+    <t>6)特権ユーザーでpgstattuple実行</t>
+    <rPh sb="2" eb="4">
+      <t>トッケン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>table_len</t>
+  </si>
+  <si>
+    <t>tuple_count</t>
+  </si>
+  <si>
+    <t>tuple_len</t>
+  </si>
+  <si>
+    <t>tuple_percent</t>
+  </si>
+  <si>
+    <t>dead_tuple_count</t>
+  </si>
+  <si>
+    <t>dead_tuple_len</t>
+  </si>
+  <si>
+    <t>dead_tuple_percent</t>
+  </si>
+  <si>
+    <t>free_space</t>
+  </si>
+  <si>
+    <t>free_percent</t>
+  </si>
+  <si>
+    <t>7)一般ユーザーにpg_stat_scan_tablesの権限を与えます</t>
+    <rPh sb="2" eb="4">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p5432 -d testdb -a -c "GRANT pg_stat_scan_tables TO general_user;"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U general_user -p5432 -d testdb -a -c "SELECT * FROM pgstattuple('pgbench_accounts');"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5)一般ユーザーでpgstattuple実行。Pgstattupleのアクセス権が得られています。</t>
+    <rPh sb="2" eb="4">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ソースコードを調べた結果、freespacemap関数でも同様の振る舞いになりそうなので、freespacemap関数で確認してみる</t>
+    <rPh sb="7" eb="8">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U postgres -d testdb -c "CREATE EXTENSION pgstattuple;"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U postgres -d testdb -c "CREATE EXTENSION pg_freespacemap;"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3)pgstattuple, pg_freespacemapのインストール</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ERROR:  関数 pg_freespace へのアクセスが拒否されました</t>
+  </si>
+  <si>
+    <t>psql -U general_user -p5432 -d testdb -a -c "SELECT * FROM pg_freespace('pgbench_accounts');"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5)一般ユーザーでpgstattuple, pg_freespace実行</t>
+    <rPh sb="2" eb="4">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>psql -U postgres -p5432 -d testdb -a -c "SELECT * FROM pg_freespace('pgbench_accounts') LIMIT 3;"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> blkno | avail</t>
+  </si>
+  <si>
+    <t>-------+-------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     0 |    96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     1 |    96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     2 |    96</t>
+  </si>
+  <si>
+    <t>psql -U general_user -p5432 -d testdb -a -c "SELECT * FROM pg_freespace('pgbench_accounts') LIMIT 3;"</t>
+  </si>
+  <si>
+    <t>ソースコードを調べた結果、freespacemap関数でも同様の振る舞いになりそうなので、freespacemap関数でも確認してみる</t>
+    <rPh sb="7" eb="8">
+      <t>シラ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8)一般ユーザーでpgstattuple実行。Pgstattupleのアクセス権が得られています。</t>
+    <rPh sb="2" eb="4">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1159,7 +1408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1221,6 +1470,7 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1503,8 +1753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:XFD61"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1906,8 +2156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB314D5D-A6D2-4230-A134-4CC75EBED2C8}">
   <dimension ref="B1:F148"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C142" sqref="C142"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101:XFD102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3244,4 +3494,437 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88964D78-C0EF-4193-A97E-E691799872A8}">
+  <dimension ref="B1:J63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="71.375" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" s="2" customFormat="1" ht="28.5">
+      <c r="B1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" s="1" customFormat="1">
+      <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" s="1" customFormat="1">
+      <c r="B3" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" s="1" customFormat="1" ht="19.5" thickBot="1"/>
+    <row r="5" spans="2:3" s="1" customFormat="1" ht="19.5" thickBot="1">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" s="1" customFormat="1" ht="19.5" thickBot="1">
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" s="1" customFormat="1" ht="38.25" thickBot="1">
+      <c r="B7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" s="1" customFormat="1" ht="38.25" thickBot="1">
+      <c r="B8" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" s="1" customFormat="1" ht="38.25" thickBot="1">
+      <c r="B9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" s="1" customFormat="1" ht="57" thickBot="1">
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" s="1" customFormat="1">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="2:3" s="1" customFormat="1">
+      <c r="B12" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" s="1" customFormat="1">
+      <c r="B13" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" s="1" customFormat="1">
+      <c r="B14" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" s="1" customFormat="1"/>
+    <row r="16" spans="2:3" s="1" customFormat="1">
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" s="4" customFormat="1">
+      <c r="B17" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" s="1" customFormat="1"/>
+    <row r="19" spans="2:2" s="1" customFormat="1">
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" s="4" customFormat="1">
+      <c r="B20" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" s="39" customFormat="1"/>
+    <row r="22" spans="2:2" s="1" customFormat="1">
+      <c r="B22" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" s="4" customFormat="1">
+      <c r="B23" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" s="4" customFormat="1">
+      <c r="B24" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" s="39" customFormat="1"/>
+    <row r="26" spans="2:2" s="1" customFormat="1">
+      <c r="B26" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" s="4" customFormat="1">
+      <c r="B27" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" s="1" customFormat="1"/>
+    <row r="29" spans="2:2" ht="19.5">
+      <c r="B29" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" s="12" customFormat="1">
+      <c r="B30" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" s="12" customFormat="1">
+      <c r="B31" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" s="1" customFormat="1"/>
+    <row r="33" spans="2:10" s="12" customFormat="1">
+      <c r="B33" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" s="12" customFormat="1">
+      <c r="B34" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="19.5">
+      <c r="B36" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" s="12" customFormat="1">
+      <c r="B37" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" s="12" customFormat="1">
+      <c r="B38" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" s="12" customFormat="1">
+      <c r="B39" s="38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" s="12" customFormat="1">
+      <c r="B40" s="12">
+        <v>13434880</v>
+      </c>
+      <c r="C40" s="12">
+        <v>100000</v>
+      </c>
+      <c r="D40" s="12">
+        <v>12100000</v>
+      </c>
+      <c r="E40" s="12">
+        <v>90.06</v>
+      </c>
+      <c r="F40" s="12">
+        <v>0</v>
+      </c>
+      <c r="G40" s="12">
+        <v>0</v>
+      </c>
+      <c r="H40" s="12">
+        <v>0</v>
+      </c>
+      <c r="I40" s="12">
+        <v>188960</v>
+      </c>
+      <c r="J40" s="12">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" s="1" customFormat="1"/>
+    <row r="42" spans="2:10" s="12" customFormat="1">
+      <c r="B42" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" s="12" customFormat="1">
+      <c r="B43" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" s="12" customFormat="1">
+      <c r="B44" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" s="12" customFormat="1">
+      <c r="B45" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" s="12" customFormat="1">
+      <c r="B46" s="12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" s="12" customFormat="1">
+      <c r="B47" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" s="1" customFormat="1">
+      <c r="B49" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" s="4" customFormat="1">
+      <c r="B50" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" ht="19.5">
+      <c r="B52" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" s="38" customFormat="1">
+      <c r="B53" s="38" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" s="38" customFormat="1">
+      <c r="B54" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="D54" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="E54" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="F54" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="G54" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="H54" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="I54" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="J54" s="38" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" s="38" customFormat="1">
+      <c r="B55" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="F55" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="G55" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="H55" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="I55" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="J55" s="38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" s="38" customFormat="1">
+      <c r="B56" s="38">
+        <v>13434880</v>
+      </c>
+      <c r="C56" s="38">
+        <v>100000</v>
+      </c>
+      <c r="D56" s="38">
+        <v>12100000</v>
+      </c>
+      <c r="E56" s="38">
+        <v>90.06</v>
+      </c>
+      <c r="F56" s="38">
+        <v>0</v>
+      </c>
+      <c r="G56" s="38">
+        <v>0</v>
+      </c>
+      <c r="H56" s="38">
+        <v>0</v>
+      </c>
+      <c r="I56" s="38">
+        <v>188960</v>
+      </c>
+      <c r="J56" s="38">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" s="12" customFormat="1">
+      <c r="B58" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" s="12" customFormat="1">
+      <c r="B59" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" s="12" customFormat="1">
+      <c r="B60" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" s="12" customFormat="1">
+      <c r="B61" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" s="12" customFormat="1">
+      <c r="B62" s="12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" s="12" customFormat="1">
+      <c r="B63" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/default_role/default_role調査.xlsx
+++ b/default_role/default_role調査.xlsx
@@ -3,14 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C15BC8E-F5CE-4953-A7D2-640DF6480DB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A23034-BB48-4B83-BD9A-2885273A8335}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pg_read_all_settings" sheetId="1" r:id="rId1"/>
     <sheet name="pg_read_all_stats" sheetId="2" r:id="rId2"/>
     <sheet name="pg_stat_scan_tables" sheetId="3" r:id="rId3"/>
+    <sheet name="pg_signal_backend" sheetId="4" r:id="rId4"/>
+    <sheet name="pg_monitor" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="209">
   <si>
     <t>ロール</t>
   </si>
@@ -930,50 +932,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>5)一般ユーザーでpgstattuple実行。Pgstattupleのアクセス権が得られています。</t>
-    <rPh sb="2" eb="4">
-      <t>イッパン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>エ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ソースコードを調べた結果、freespacemap関数でも同様の振る舞いになりそうなので、freespacemap関数で確認してみる</t>
-    <rPh sb="7" eb="8">
-      <t>シラ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ドウヨウ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>カンスウ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>psql -U postgres -d testdb -c "CREATE EXTENSION pgstattuple;"</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1064,6 +1022,175 @@
     </rPh>
     <rPh sb="41" eb="42">
       <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pg_signal_backend</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pg_stat_scan_tablesロールの動作確認</t>
+    <rPh sb="23" eb="25">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pg_signal_backendロールの動作確認</t>
+    <rPh sb="21" eb="23">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>今回はpg_stat_scan_tablesについて動作確認します</t>
+    <rPh sb="0" eb="2">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>今回はpg_signal_backendについて動作確認します</t>
+    <rPh sb="0" eb="2">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>select pid from pg_stat_activity</t>
+  </si>
+  <si>
+    <t>EXECUTE 'select pg_terminate_backend(' || rec.pid || ')';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      RAISE NOTICE 'kill session%', rec.pid;</t>
+  </si>
+  <si>
+    <t>ERROR:  終了しようとしているプロセスのロールまたはpg_signal_backendのメンバである必要があります。</t>
+  </si>
+  <si>
+    <t>2)一般ユーザーでpg_terminate_backend実行。</t>
+    <rPh sb="2" eb="4">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> サーバとの接続が想定外にクローズされました</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        おそらく要求の処理前または処理中にサーバが異常終了</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        したことを意味しています。</t>
+  </si>
+  <si>
+    <t>psql -U postgres -p5432 -d postgres -a -c "GRANT pg_signal_backend TO general_user;"</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サーバとの接続が想定外にクローズされました</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NOTICE:  kill session3860</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> NOTICE:  kill session10704</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3)特権ユーザーでpg_terminate_backend実行。</t>
+    <rPh sb="2" eb="4">
+      <t>トッケン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>4)一般ユーザーにpg_signal_backendの権限を与えます</t>
+    <rPh sb="2" eb="4">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5)一般ユーザーでpg_terminate_backend実行。</t>
+    <rPh sb="2" eb="4">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pg_monitor</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pg_monitorロールの動作確認</t>
+    <rPh sb="14" eb="16">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pg_monitorはこれまで確認した４つのロールが合体したものなので確認は省略します。</t>
+    <rPh sb="15" eb="17">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ガッタイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ショウリャク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>postgresqlには次のデフォルトロールが用意されています。</t>
+    <rPh sb="12" eb="13">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヨウイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1753,7 +1880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:C70"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A16" sqref="A16:XFD20"/>
     </sheetView>
   </sheetViews>
@@ -2156,7 +2283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB314D5D-A6D2-4230-A134-4CC75EBED2C8}">
   <dimension ref="B1:F148"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="A101" sqref="A101:XFD102"/>
     </sheetView>
   </sheetViews>
@@ -3500,8 +3627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88964D78-C0EF-4193-A97E-E691799872A8}">
   <dimension ref="B1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3524,7 +3651,7 @@
   <sheetData>
     <row r="1" spans="2:3" s="2" customFormat="1" ht="28.5">
       <c r="B1" s="2" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="2:3" s="1" customFormat="1">
@@ -3534,7 +3661,7 @@
     </row>
     <row r="3" spans="2:3" s="1" customFormat="1">
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="2:3" s="1" customFormat="1" ht="19.5" thickBot="1"/>
@@ -3602,7 +3729,7 @@
     </row>
     <row r="14" spans="2:3" s="1" customFormat="1">
       <c r="B14" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="2:3" s="1" customFormat="1"/>
@@ -3630,17 +3757,17 @@
     <row r="21" spans="2:2" s="39" customFormat="1"/>
     <row r="22" spans="2:2" s="1" customFormat="1">
       <c r="B22" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="2:2" s="4" customFormat="1">
       <c r="B23" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="2:2" s="4" customFormat="1">
       <c r="B24" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="2:2" s="39" customFormat="1"/>
@@ -3657,7 +3784,7 @@
     <row r="28" spans="2:2" s="1" customFormat="1"/>
     <row r="29" spans="2:2" ht="19.5">
       <c r="B29" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="2:2" s="12" customFormat="1">
@@ -3673,12 +3800,12 @@
     <row r="32" spans="2:2" s="1" customFormat="1"/>
     <row r="33" spans="2:10" s="12" customFormat="1">
       <c r="B33" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="2:10" s="12" customFormat="1">
       <c r="B34" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="19.5">
@@ -3757,32 +3884,32 @@
     <row r="41" spans="2:10" s="1" customFormat="1"/>
     <row r="42" spans="2:10" s="12" customFormat="1">
       <c r="B42" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="2:10" s="12" customFormat="1">
       <c r="B43" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="2:10" s="12" customFormat="1">
       <c r="B44" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="2:10" s="12" customFormat="1">
       <c r="B45" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="2:10" s="12" customFormat="1">
       <c r="B46" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="2:10" s="12" customFormat="1">
       <c r="B47" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="2:10" s="1" customFormat="1">
@@ -3797,7 +3924,7 @@
     </row>
     <row r="52" spans="2:10" ht="19.5">
       <c r="B52" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="2:10" s="38" customFormat="1">
@@ -3894,34 +4021,384 @@
     </row>
     <row r="58" spans="2:10" s="12" customFormat="1">
       <c r="B58" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="2:10" s="12" customFormat="1">
       <c r="B59" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" spans="2:10" s="12" customFormat="1">
       <c r="B60" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" spans="2:10" s="12" customFormat="1">
       <c r="B61" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62" spans="2:10" s="12" customFormat="1">
       <c r="B62" s="12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="2:10" s="12" customFormat="1">
       <c r="B63" s="12" t="s">
-        <v>183</v>
-      </c>
-    </row>
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0050387-FD62-496F-980C-209CACF93963}">
+  <dimension ref="B1:C46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="71.375" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" s="2" customFormat="1" ht="28.5">
+      <c r="B1" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" s="1" customFormat="1">
+      <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" s="1" customFormat="1">
+      <c r="B3" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" s="1" customFormat="1" ht="19.5" thickBot="1"/>
+    <row r="5" spans="2:3" s="1" customFormat="1" ht="19.5" thickBot="1">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" s="1" customFormat="1" ht="19.5" thickBot="1">
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" s="1" customFormat="1" ht="38.25" thickBot="1">
+      <c r="B7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" s="1" customFormat="1" ht="38.25" thickBot="1">
+      <c r="B8" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" s="1" customFormat="1" ht="38.25" thickBot="1">
+      <c r="B9" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" s="1" customFormat="1" ht="57" thickBot="1">
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" s="1" customFormat="1">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="2:3" s="1" customFormat="1"/>
+    <row r="13" spans="2:3" s="1" customFormat="1">
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" s="4" customFormat="1">
+      <c r="B14" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" s="1" customFormat="1"/>
+    <row r="16" spans="2:3" ht="19.5">
+      <c r="B16" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" s="12" customFormat="1">
+      <c r="B17" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" s="12" customFormat="1">
+      <c r="B18" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" s="12" customFormat="1">
+      <c r="B19" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" s="12" customFormat="1">
+      <c r="B20" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" s="12" customFormat="1">
+      <c r="B21" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" s="12" customFormat="1">
+      <c r="B22" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" s="12" customFormat="1">
+      <c r="C23" s="12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" s="12" customFormat="1">
+      <c r="B24" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" s="12" customFormat="1">
+      <c r="C25" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" s="12" customFormat="1">
+      <c r="B26" s="12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" s="12" customFormat="1">
+      <c r="B27" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" s="12" customFormat="1">
+      <c r="B28" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" s="12" customFormat="1">
+      <c r="B29" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" s="12" customFormat="1">
+      <c r="B31" s="12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="19.5">
+      <c r="B33" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" s="12" customFormat="1">
+      <c r="B34" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" s="12" customFormat="1">
+      <c r="B35" s="12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" s="12" customFormat="1">
+      <c r="B36" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" s="12" customFormat="1">
+      <c r="B37" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" s="1" customFormat="1">
+      <c r="B39" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" s="4" customFormat="1">
+      <c r="B40" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" ht="19.5">
+      <c r="B42" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" s="12" customFormat="1">
+      <c r="B43" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" s="12" customFormat="1">
+      <c r="B44" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" s="12" customFormat="1">
+      <c r="B45" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" s="12" customFormat="1">
+      <c r="B46" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4576EF-343F-4752-800A-E4C9F122CB46}">
+  <dimension ref="B1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+    <col min="3" max="3" width="71.375" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" s="2" customFormat="1" ht="28.5">
+      <c r="B1" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" s="1" customFormat="1">
+      <c r="B2" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" s="1" customFormat="1">
+      <c r="B3" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" s="1" customFormat="1" ht="19.5" thickBot="1"/>
+    <row r="5" spans="2:3" s="1" customFormat="1" ht="19.5" thickBot="1">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" s="1" customFormat="1" ht="19.5" thickBot="1">
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" s="1" customFormat="1" ht="38.25" thickBot="1">
+      <c r="B7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" s="1" customFormat="1" ht="38.25" thickBot="1">
+      <c r="B8" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" s="1" customFormat="1" ht="38.25" thickBot="1">
+      <c r="B9" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" s="1" customFormat="1" ht="57" thickBot="1">
+      <c r="B10" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" s="1" customFormat="1">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="2:3" s="1" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
